--- a/TPs/TP1/TABLA200/AG_TP1_Torneo_s_Elitismo.xlsx
+++ b/TPs/TP1/TABLA200/AG_TP1_Torneo_s_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9779612290593896</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="C2">
-        <v>0.03822052660793266</v>
+        <v>0.0006626148426962966</v>
       </c>
       <c r="D2">
-        <v>0.3172639655110752</v>
+        <v>0.3451566118068129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9779612327434009</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="C3">
-        <v>0.1827432363497651</v>
+        <v>0.1452034230924215</v>
       </c>
       <c r="D3">
-        <v>0.6006530402367141</v>
+        <v>0.6001075393029764</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9779612548474681</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="C4">
-        <v>0.03190925888986765</v>
+        <v>0.4592888636712714</v>
       </c>
       <c r="D4">
-        <v>0.8316139577419956</v>
+        <v>0.8232886341074439</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9779612548474681</v>
+        <v>0.8738280978458652</v>
       </c>
       <c r="C5">
-        <v>0.9473016475719573</v>
+        <v>0.8359077652469316</v>
       </c>
       <c r="D5">
-        <v>0.9748952779102676</v>
+        <v>0.868576221697874</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9779612548474681</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="C6">
-        <v>0.9779461504597123</v>
+        <v>0.8720032803208722</v>
       </c>
       <c r="D6">
-        <v>0.9779596825173101</v>
+        <v>0.8720032928442556</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9798936914059203</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="C7">
-        <v>0.9779612401114233</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="D7">
-        <v>0.9782027900622767</v>
+        <v>0.8720032942357427</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9798936914059203</v>
+        <v>0.9926359401344884</v>
       </c>
       <c r="C8">
-        <v>0.919001766459087</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="D8">
-        <v>0.9728858184354742</v>
+        <v>0.884066559173489</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9798936914059203</v>
+        <v>0.9926359438460368</v>
       </c>
       <c r="C9">
-        <v>0.9779612548474681</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="D9">
-        <v>0.9796974268511194</v>
+        <v>0.9202563536621394</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9798936914059203</v>
+        <v>0.9945828177725246</v>
       </c>
       <c r="C10">
-        <v>0.9798936914059203</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="D10">
-        <v>0.9798936914059203</v>
+        <v>0.9566408356132875</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9798936914059203</v>
+        <v>0.9945828177725246</v>
       </c>
       <c r="C11">
-        <v>0.9798936914059203</v>
+        <v>0.8720032977144605</v>
       </c>
       <c r="D11">
-        <v>0.9798936914059203</v>
+        <v>0.9809619942506089</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9798936914059203</v>
+        <v>0.9945828177725246</v>
       </c>
       <c r="C12">
-        <v>0.9779612548474681</v>
+        <v>0.9926359438460368</v>
       </c>
       <c r="D12">
-        <v>0.9797004477500749</v>
+        <v>0.993804020647546</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9798937209071142</v>
+        <v>0.9945828177725246</v>
       </c>
       <c r="C13">
-        <v>0.9798935734011488</v>
+        <v>0.9945790134253797</v>
       </c>
       <c r="D13">
-        <v>0.9798936818180326</v>
+        <v>0.9945823897834266</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9799541402841204</v>
+        <v>0.9945980352338635</v>
       </c>
       <c r="C14">
-        <v>0.9798936914059203</v>
+        <v>0.2472950866255487</v>
       </c>
       <c r="D14">
-        <v>0.979911831969619</v>
+        <v>0.9198555664039608</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9799541550351724</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C15">
-        <v>0.9797124739519668</v>
+        <v>0.994521949091322</v>
       </c>
       <c r="D15">
-        <v>0.9799178853503701</v>
+        <v>0.9946315199119535</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9799541550351724</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C16">
-        <v>0.9799539042673052</v>
+        <v>0.9945980352338635</v>
       </c>
       <c r="D16">
-        <v>0.9799541225828594</v>
+        <v>0.994841545348932</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9799579313081093</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C17">
-        <v>0.9789876685132164</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D17">
-        <v>0.979851840597419</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9799598194473063</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C18">
-        <v>0.9799541550351724</v>
+        <v>0.9950845798001559</v>
       </c>
       <c r="D18">
-        <v>0.9799562201846962</v>
+        <v>0.9950849841144223</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9799598194473063</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C19">
-        <v>0.9797181524148416</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D19">
-        <v>0.9799348974883809</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9954865953153635</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C20">
-        <v>0.9799541550351724</v>
+        <v>0.9950850405995033</v>
       </c>
       <c r="D20">
-        <v>0.981511836185916</v>
+        <v>0.9950850539775506</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9954884983557217</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C21">
-        <v>0.9799579313081093</v>
+        <v>0.9950850405995033</v>
       </c>
       <c r="D21">
-        <v>0.9830651761110337</v>
+        <v>0.9950850539775505</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9959757365248909</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C22">
-        <v>0.7481025194435815</v>
+        <v>0.2475455542970241</v>
       </c>
       <c r="D22">
-        <v>0.9692449475984592</v>
+        <v>0.9203250169425002</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9993897415691892</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C23">
-        <v>0.761678073348359</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D23">
-        <v>0.9725948375061302</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9993897415691892</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C24">
-        <v>0.2477467986755168</v>
+        <v>0.7613251800849447</v>
       </c>
       <c r="D24">
-        <v>0.9212489560070261</v>
+        <v>0.9717090679260947</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9993897415691892</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C25">
-        <v>0.9954884983557217</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D25">
-        <v>0.996951011968606</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9993897415691892</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C26">
-        <v>0.8783339149881328</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D26">
-        <v>0.9385205168029567</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9993897415691892</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C27">
-        <v>0.8207360243700281</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D27">
-        <v>0.9678628895145568</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9995117783541901</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C28">
-        <v>0.999389711775962</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D28">
-        <v>0.9994141459468666</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9995117783541901</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C29">
-        <v>0.765091035310917</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D29">
-        <v>0.9744527660087027</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9995117783541901</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C30">
-        <v>0.5621338483176715</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D30">
-        <v>0.9119248605619179</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9995117783541901</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C31">
-        <v>0.9994965233486114</v>
+        <v>0.9873070368965862</v>
       </c>
       <c r="D31">
-        <v>0.9995079646013403</v>
+        <v>0.994307253607259</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9995117783541901</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="C32">
-        <v>0.9380035995868924</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D32">
-        <v>0.9932629705348546</v>
+        <v>0.9950850554640003</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C33">
-        <v>0.999481268459448</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D33">
-        <v>0.999508727364716</v>
+        <v>0.9954748146992574</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C34">
-        <v>0.9685135483450865</v>
+        <v>0.9950850405995033</v>
       </c>
       <c r="D34">
-        <v>0.9964119553532799</v>
+        <v>0.9957667519222285</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C35">
-        <v>0.9992677122347688</v>
+        <v>0.9955721949034266</v>
       </c>
       <c r="D35">
-        <v>0.999462965130306</v>
+        <v>0.9960107276872712</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C36">
-        <v>0.9995116591740077</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D36">
-        <v>0.9995117664361718</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C37">
-        <v>0.9995117746298093</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D37">
-        <v>0.9995117779817522</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C38">
-        <v>0.999481268459448</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D38">
-        <v>0.999508727364716</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C39">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D39">
-        <v>0.9995117783541903</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C40">
-        <v>0.5621338483176715</v>
+        <v>0.9346592796237402</v>
       </c>
       <c r="D40">
-        <v>0.9557739495964842</v>
+        <v>0.9899194361593026</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C41">
-        <v>0.765197813306827</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D41">
-        <v>0.9760803818494539</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C42">
-        <v>0.765197813306827</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D42">
-        <v>0.9756885174508276</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C43">
-        <v>0.9995117187640982</v>
+        <v>0.9950850554640002</v>
       </c>
       <c r="D43">
-        <v>0.999511772395181</v>
+        <v>0.9959620137433285</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C44">
-        <v>0.9995113016335037</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D44">
-        <v>0.9995117306821214</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C45">
-        <v>0.9685135483450865</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D45">
-        <v>0.9932999286738694</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C46">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D46">
-        <v>0.9995117783541903</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C47">
-        <v>0.2497559185139836</v>
+        <v>0.9960442249149329</v>
       </c>
       <c r="D47">
-        <v>0.9245361685341337</v>
+        <v>0.9960579306884219</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C48">
-        <v>0.9685135483450865</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D48">
-        <v>0.996410429852722</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9995117783541901</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="C49">
-        <v>0.765197813306827</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D49">
-        <v>0.9729683514448327</v>
+        <v>0.9960594535521429</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C50">
-        <v>0.9995117485591439</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D50">
-        <v>0.9995117753746856</v>
+        <v>0.9960602149883687</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C51">
-        <v>0.8784413951430504</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D51">
-        <v>0.9865992745307111</v>
+        <v>0.9960617378608209</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C52">
-        <v>0.9956102967221431</v>
+        <v>0.9960594535521429</v>
       </c>
       <c r="D52">
-        <v>0.9991213739536831</v>
+        <v>0.9960646884260378</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C53">
-        <v>0.9917164444846415</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D53">
-        <v>0.9987261400553484</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C54">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D54">
-        <v>0.9995117783541903</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C55">
-        <v>0.9995116591740077</v>
+        <v>0.9960061538312253</v>
       </c>
       <c r="D55">
-        <v>0.9995117664361718</v>
+        <v>0.9960548850977677</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C56">
-        <v>0.9380035995868924</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D56">
-        <v>0.993360769789254</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C57">
-        <v>0.9994507590303671</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D57">
-        <v>0.9995049136700738</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C58">
-        <v>0.9956102967221431</v>
+        <v>0.9960651643211099</v>
       </c>
       <c r="D58">
-        <v>0.9991151230463364</v>
+        <v>0.9960668775550741</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C59">
-        <v>0.765197813306827</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D59">
-        <v>0.9729801774723127</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C60">
-        <v>0.9380034841320003</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D60">
-        <v>0.9749084953017817</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C61">
-        <v>0.9995117783541901</v>
+        <v>0.2480354707992452</v>
       </c>
       <c r="D61">
-        <v>0.9995117783541903</v>
+        <v>0.9212639022541558</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C62">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D62">
-        <v>0.9995117783541903</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C63">
-        <v>0.999481268459448</v>
+        <v>0.5595512692404091</v>
       </c>
       <c r="D63">
-        <v>0.999508727364716</v>
+        <v>0.9524154880470039</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C64">
-        <v>0.9685135483450865</v>
+        <v>0.9960661161175293</v>
       </c>
       <c r="D64">
-        <v>0.99329989273355</v>
+        <v>0.996066972734716</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9995117783541901</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C65">
-        <v>0.9994507590303671</v>
+        <v>0.9960632607296352</v>
       </c>
       <c r="D65">
-        <v>0.9995054857336015</v>
+        <v>0.9960666871959265</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C66">
-        <v>0.765197813306827</v>
+        <v>0.9960670530425739</v>
       </c>
       <c r="D66">
-        <v>0.9761292040140347</v>
+        <v>0.9960670664272204</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C67">
-        <v>0.9995113016335037</v>
+        <v>0.9960670530425739</v>
       </c>
       <c r="D67">
-        <v>0.9997557223001259</v>
+        <v>0.9960670664272204</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C68">
-        <v>0.562499999650754</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D68">
-        <v>0.9562499567517104</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C69">
-        <v>0.9689941405963509</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D69">
-        <v>0.9937622081430731</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C70">
-        <v>0.9980478286724992</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D70">
-        <v>0.9998047709463214</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C72">
-        <v>0.2499999995343387</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D72">
-        <v>0.9128906249425199</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C73">
-        <v>0.2499999995343387</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D73">
-        <v>0.9234435796257585</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C74">
-        <v>0.7656249997962732</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D74">
-        <v>0.9765624999796273</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C75">
-        <v>0.9999980926522749</v>
+        <v>0.9958234227575616</v>
       </c>
       <c r="D75">
-        <v>0.9999998092652275</v>
+        <v>0.9959817915507152</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C76">
-        <v>0.9998779334126766</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D76">
-        <v>0.9999877933412676</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C77">
-        <v>0.9689941405963509</v>
+        <v>0.9955798074030422</v>
       </c>
       <c r="D77">
-        <v>0.9953186050014097</v>
+        <v>0.9960183418632672</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C78">
-        <v>0.9960975646936348</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D78">
-        <v>0.9995853409167246</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C79">
-        <v>0.8789062498908606</v>
+        <v>0.9960665920159095</v>
       </c>
       <c r="D79">
-        <v>0.9877929925808531</v>
+        <v>0.9960670143758221</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C80">
-        <v>0.9844357985858918</v>
+        <v>0.9960669489397692</v>
       </c>
       <c r="D80">
-        <v>0.9980532886908058</v>
+        <v>0.9960670560169399</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C81">
-        <v>0.9999923706200136</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D81">
-        <v>0.9999992370620013</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C82">
-        <v>0.9999999701976778</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D82">
-        <v>0.9999999970197677</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C83">
-        <v>0.9999999403953561</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D83">
-        <v>0.9999999936670065</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C84">
-        <v>0.9384765624436113</v>
+        <v>0.9950921904353073</v>
       </c>
       <c r="D84">
-        <v>0.9934574127137246</v>
+        <v>0.9958721399851506</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C85">
-        <v>0.9999998807907138</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D85">
-        <v>0.9999999761581428</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C86">
-        <v>0.999984741269131</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D86">
-        <v>0.9999984741269131</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C87">
-        <v>0.9999990463259101</v>
+        <v>0.9960632607296352</v>
       </c>
       <c r="D87">
-        <v>0.9999999046325911</v>
+        <v>0.9960666842215605</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C88">
-        <v>0.2499999995343387</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D88">
-        <v>0.9249999992083758</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C89">
-        <v>0.9689941405963509</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D89">
-        <v>0.9953430175738163</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C90">
-        <v>0.8789062498908606</v>
+        <v>0.9960668299651423</v>
       </c>
       <c r="D90">
-        <v>0.9878905773053759</v>
+        <v>0.9960670441194773</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C91">
-        <v>0.9997558742759338</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D91">
-        <v>0.9999753966928209</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C92">
-        <v>0.9960975646936348</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D92">
-        <v>0.9996089816104362</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C93">
-        <v>0.9990236759176701</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D93">
-        <v>0.999900698667561</v>
+        <v>0.9960670679144034</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C94">
-        <v>0.992202758781815</v>
+        <v>0.9941187411246967</v>
       </c>
       <c r="D94">
-        <v>0.9992141724556831</v>
+        <v>0.9958722352354327</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="C95">
-        <v>0.9990236759176701</v>
+        <v>0.9959452416106923</v>
       </c>
       <c r="D95">
-        <v>0.9998779531567379</v>
+        <v>0.9960548852840322</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.9960669489397692</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0.9964572935794722</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C97">
-        <v>0.9990236759176701</v>
+        <v>0.9805338593585669</v>
       </c>
       <c r="D97">
-        <v>0.9999021649360659</v>
+        <v>0.9952942221838843</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C98">
-        <v>0.992202758781815</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D98">
-        <v>0.9990250110617154</v>
+        <v>0.9984084932895971</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C99">
-        <v>0.8789062498908606</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D99">
-        <v>0.9876915455000891</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C100">
-        <v>0.8789062498908606</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D100">
-        <v>0.9878898616785584</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C101">
-        <v>0.9689941405963509</v>
+        <v>0.9999693243322614</v>
       </c>
       <c r="D101">
-        <v>0.9968994140596351</v>
+        <v>0.9999694316189798</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0.9999694286387929</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0.9999694420496329</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0.9999693839359931</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0.999969437579353</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C105">
-        <v>0.9999990463259101</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D105">
-        <v>0.9999999046325911</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C106">
-        <v>0.9999999850988388</v>
+        <v>0.9998473788174356</v>
       </c>
       <c r="D106">
-        <v>0.9999999985098839</v>
+        <v>0.9999571893845156</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C107">
-        <v>0.9999694826546772</v>
+        <v>0.9999693839359931</v>
       </c>
       <c r="D107">
-        <v>0.9999954097263941</v>
+        <v>0.999969437579353</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C109">
-        <v>0.9384765624436113</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D109">
-        <v>0.993845176698503</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C110">
-        <v>0.9998779334126766</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D110">
-        <v>0.9999868392950584</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C111">
-        <v>0.9999389657750157</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D111">
-        <v>0.9999938965775016</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C112">
-        <v>0.9995117783541901</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D112">
-        <v>0.999951148033098</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C113">
-        <v>0.9990236759176701</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D113">
-        <v>0.9998901601879766</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C114">
-        <v>0.9995117783541901</v>
+        <v>0.9999675362211423</v>
       </c>
       <c r="D114">
-        <v>0.9998046159742671</v>
+        <v>0.9999692528078679</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C115">
-        <v>0.9999923706200136</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D115">
-        <v>0.9999973297166409</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C116">
-        <v>0.9999995231628982</v>
+        <v>0.9960670679144035</v>
       </c>
       <c r="D116">
-        <v>0.9999999523162899</v>
+        <v>0.999579205977194</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C117">
-        <v>0.9999923706200136</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D117">
-        <v>0.9999992370620013</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="C118">
-        <v>0.9384765624436113</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D118">
-        <v>0.9937988340797801</v>
+        <v>0.9999694435397263</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C119">
-        <v>0.9980478286724992</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D119">
-        <v>0.9998047828672499</v>
+        <v>0.9999694465199129</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C120">
-        <v>0.8789062498908606</v>
+        <v>0.9999684898802069</v>
       </c>
       <c r="D120">
-        <v>0.9876954071112779</v>
+        <v>0.9999693541341477</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C121">
-        <v>0.9960975646936348</v>
+        <v>0.9999694435397263</v>
       </c>
       <c r="D121">
-        <v>0.9996096611019546</v>
+        <v>0.9999694644010335</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C122">
-        <v>0.9960975646936348</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D122">
-        <v>0.9994145385915554</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C123">
-        <v>0.9980478286724992</v>
+        <v>0.99996899651177</v>
       </c>
       <c r="D123">
-        <v>0.9994135856637512</v>
+        <v>0.9999694256586112</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C124">
-        <v>0.9844360351418118</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D124">
-        <v>0.9983947813496001</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C125">
-        <v>0.9980478286724992</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D125">
-        <v>0.9998047824947209</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C126">
-        <v>0.8789062498908606</v>
+        <v>0.9989931641649723</v>
       </c>
       <c r="D126">
-        <v>0.9878898613060294</v>
+        <v>0.9998718424239315</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C127">
-        <v>0.7639169690942271</v>
+        <v>0.9689640909206227</v>
       </c>
       <c r="D127">
-        <v>0.9759951323993354</v>
+        <v>0.9968687443676352</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C128">
-        <v>0.7656249997962732</v>
+        <v>0.9980173318255102</v>
       </c>
       <c r="D128">
-        <v>0.970410078737963</v>
+        <v>0.9997742591899852</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C129">
-        <v>0.9999999403953561</v>
+        <v>0.9980173318255102</v>
       </c>
       <c r="D129">
-        <v>0.9999999940395355</v>
+        <v>0.9995790450383769</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C130">
-        <v>0.9999980926522749</v>
+        <v>0.9999656587061878</v>
       </c>
       <c r="D130">
-        <v>0.9999998077751113</v>
+        <v>0.9999690918780531</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0.2499847363216361</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0.9249709996395978</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C132">
-        <v>0.9689941405963509</v>
+        <v>0.9960670976580631</v>
       </c>
       <c r="D132">
-        <v>0.9965091705289986</v>
+        <v>0.9995792357732405</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C133">
-        <v>0.8789062498908606</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D133">
-        <v>0.95746459966403</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C134">
-        <v>0.9384765624436113</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D134">
-        <v>0.9868606553291983</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C135">
-        <v>0.9999694826546772</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D135">
-        <v>0.9999969482654677</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C136">
-        <v>0.8789062498908606</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D136">
-        <v>0.9878906249890861</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C138">
-        <v>0.8789062498908606</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D138">
-        <v>0.9875001430398758</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C140">
-        <v>0.2499999995343387</v>
+        <v>0.9998474086174838</v>
       </c>
       <c r="D140">
-        <v>0.9249992366429062</v>
+        <v>0.9999572549484359</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C141">
-        <v>0.7656249997962732</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D141">
-        <v>0.9765624992345693</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C142">
-        <v>0.992202758781815</v>
+        <v>0.9998474086174838</v>
       </c>
       <c r="D142">
-        <v>0.9992187500050946</v>
+        <v>0.9999572668691826</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C143">
-        <v>0.9999999403953561</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D143">
-        <v>0.9999999877065422</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C144">
-        <v>0.9999694826546772</v>
+        <v>0.9999542148436262</v>
       </c>
       <c r="D144">
-        <v>0.9999967575306952</v>
+        <v>0.9999679430215167</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C145">
-        <v>0.2499999995343387</v>
+        <v>0.9999694584406599</v>
       </c>
       <c r="D145">
-        <v>0.9172668471395695</v>
+        <v>0.9999694703614068</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C146">
-        <v>0.9999999925494194</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D146">
-        <v>0.9999999985098839</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C147">
-        <v>0.9844360351418118</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D147">
-        <v>0.9983947813496001</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C148">
-        <v>0.9999980926522749</v>
+        <v>0.5624771047151995</v>
       </c>
       <c r="D148">
-        <v>0.999999801069589</v>
+        <v>0.9562202364789542</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C149">
-        <v>0.9689941405963509</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D149">
-        <v>0.9968872066558901</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C150">
-        <v>0.9995117783541901</v>
+        <v>0.2499847363216361</v>
       </c>
       <c r="D150">
-        <v>0.99995117746289</v>
+        <v>0.9249709996395978</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C151">
-        <v>0.9999990463259101</v>
+        <v>0.99996851968206</v>
       </c>
       <c r="D151">
-        <v>0.9999998092651821</v>
+        <v>0.9999692826096869</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C152">
-        <v>0.9998779334126766</v>
+        <v>0.9999675660229812</v>
       </c>
       <c r="D152">
-        <v>0.9999877814203391</v>
+        <v>0.9999687104141486</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C153">
-        <v>0.9999980926522749</v>
+        <v>0.99996899651177</v>
       </c>
       <c r="D153">
-        <v>0.9999997138978184</v>
+        <v>0.9999693302926465</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C154">
-        <v>0.9997558742759338</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D154">
-        <v>0.9999755855649483</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C155">
-        <v>0.8789062498908606</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D155">
-        <v>0.9878631368402907</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C156">
-        <v>0.9999923706200136</v>
+        <v>0.9999694584406599</v>
       </c>
       <c r="D156">
-        <v>0.9999984741240027</v>
+        <v>0.9999694718515002</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C157">
-        <v>0.992202758781815</v>
+        <v>0.9994812591486381</v>
       </c>
       <c r="D157">
-        <v>0.9992202509187379</v>
+        <v>0.9999206519222981</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C158">
-        <v>0.8789062498908606</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D158">
-        <v>0.987890623871499</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C159">
-        <v>0.9999999888241291</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D159">
-        <v>0.9999999981373549</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C160">
-        <v>0.9999999962747097</v>
+        <v>0.99996899651177</v>
       </c>
       <c r="D160">
-        <v>0.999999999254942</v>
+        <v>0.9999694256586112</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C161">
-        <v>0.9998779334126766</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D161">
-        <v>0.9999877933412676</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C162">
-        <v>0.2499999995343387</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D162">
-        <v>0.9249450743663544</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="C163">
-        <v>0.9689941405963509</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D163">
-        <v>0.996899413314577</v>
+        <v>0.9999694733415936</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C164">
-        <v>0.9999999925494194</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D164">
-        <v>0.999999999254942</v>
+        <v>0.9999694740866403</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0.9999694793019671</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C166">
-        <v>0.7656249997962732</v>
+        <v>0.9999694733415936</v>
       </c>
       <c r="D166">
-        <v>0.9765624999796273</v>
+        <v>0.9999694800470138</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C168">
-        <v>0.9844360351418118</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D168">
-        <v>0.9984161388347133</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C170">
-        <v>0.9999389657750157</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D170">
-        <v>0.9999893189698824</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C171">
-        <v>0.9999694826546772</v>
+        <v>0.9921723587904412</v>
       </c>
       <c r="D171">
-        <v>0.9999968528980446</v>
+        <v>0.9991897685918986</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C172">
-        <v>0.9960975646936348</v>
+        <v>0.7655982955184371</v>
       </c>
       <c r="D172">
-        <v>0.9988261938317017</v>
+        <v>0.9765323618921748</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C173">
-        <v>0.9844360351418118</v>
+        <v>0.9999692423771336</v>
       </c>
       <c r="D173">
-        <v>0.9984416008043222</v>
+        <v>0.9999694569505678</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C174">
-        <v>0.9960975646936348</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D174">
-        <v>0.999609750508899</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C175">
-        <v>0.9960975646936348</v>
+        <v>0.999967573473441</v>
       </c>
       <c r="D175">
-        <v>0.9996097564693635</v>
+        <v>0.9999692900601985</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C176">
-        <v>0.9999990463259101</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D176">
-        <v>0.9999999046325911</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C178">
-        <v>0.9999999850988388</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D178">
-        <v>0.9999999981373549</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C179">
-        <v>0.9999995194376088</v>
+        <v>0.7655982955184371</v>
       </c>
       <c r="D179">
-        <v>0.9999999459832963</v>
+        <v>0.9765323622646982</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C180">
-        <v>0.7656249997962732</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D180">
-        <v>0.9765624493156849</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C182">
-        <v>0.2499999995343387</v>
+        <v>0.9999693615845934</v>
       </c>
       <c r="D182">
-        <v>0.9249999939929694</v>
+        <v>0.9999694688713138</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C183">
-        <v>0.7656249997962732</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D183">
-        <v>0.9765563965571289</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C184">
-        <v>0.9990236759176701</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D184">
-        <v>0.999902367591767</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C185">
-        <v>0.9999995231628982</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D185">
-        <v>0.9999999523162899</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C186">
-        <v>0.9999999850988388</v>
+        <v>0.9999694509901931</v>
       </c>
       <c r="D186">
-        <v>0.9999999981373549</v>
+        <v>0.9999694778118737</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C187">
-        <v>0.992202758781815</v>
+        <v>0.9999694509901931</v>
       </c>
       <c r="D187">
-        <v>0.9992201805107725</v>
+        <v>0.9999694778118737</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C188">
-        <v>0.9999995231628982</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D188">
-        <v>0.9999999523162899</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C189">
-        <v>0.9999990463259101</v>
+        <v>0.2499847400468127</v>
       </c>
       <c r="D189">
-        <v>0.9999999046325911</v>
+        <v>0.9249710067175357</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C190">
-        <v>0.9999995157123194</v>
+        <v>0.9999542222940363</v>
       </c>
       <c r="D190">
-        <v>0.9999998062849278</v>
+        <v>0.9999679549422581</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C191">
-        <v>0.7656249997962732</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D191">
-        <v>0.9765609741065404</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C192">
-        <v>0.9999990463259101</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D192">
-        <v>0.9999998092651821</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C193">
-        <v>0.9689941405963509</v>
+        <v>0.8788776381479728</v>
       </c>
       <c r="D193">
-        <v>0.9968505918950541</v>
+        <v>0.9877626656096258</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C194">
-        <v>0.9689941405963509</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D194">
-        <v>0.9966919902681527</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C195">
-        <v>0.9999389657750157</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D195">
-        <v>0.9999938965775016</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C196">
-        <v>0.8789062498908606</v>
+        <v>0.9384469969681977</v>
       </c>
       <c r="D196">
-        <v>0.9871101379292689</v>
+        <v>0.9938172324096742</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C197">
-        <v>0.562499999650754</v>
+        <v>0.999481266597286</v>
       </c>
       <c r="D197">
-        <v>0.9320312495707185</v>
+        <v>0.999920659372583</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C198">
-        <v>0.9999999403953561</v>
+        <v>0.9384469969681977</v>
       </c>
       <c r="D198">
-        <v>0.9999999910593033</v>
+        <v>0.9907166941559357</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C199">
-        <v>0.9997558742759338</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D199">
-        <v>0.9999755859374773</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C200">
-        <v>0.9990236759176701</v>
+        <v>0.999481266597286</v>
       </c>
       <c r="D200">
-        <v>0.9999023631214186</v>
+        <v>0.9998718379531055</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C201">
-        <v>0.9844360351418118</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D201">
-        <v>0.9976516727336303</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0.9999694807920605</v>
       </c>
     </row>
   </sheetData>
